--- a/nmadb/481729.xlsx
+++ b/nmadb/481729.xlsx
@@ -1,6 +1,366 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="315" windowWidth="21015" windowHeight="9705"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Keck 2003a</t>
+  </si>
+  <si>
+    <t>Sachs 2006</t>
+  </si>
+  <si>
+    <t>Keck 2009</t>
+  </si>
+  <si>
+    <t>Young et al. (2009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Mallakh et al. (2010) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">McIntyre et al. (2009) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">McIntyre et al. (2010) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weisler et al. (2004) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weisler et al. (2005) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knesevich et al. (2009) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bose et al. (2012) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calabrese et al. (2013) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">McIntyre et al. (2005) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smulevich et al. (2005) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young et al. (2009) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vieta et al. (2010b) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katagiri et al. (2012) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowden et al. (2000) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goldsmith et al. (2003) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">|||CLIC477D2301 2007 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowden et al. (1994) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowden et al. (2005) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kushner et al. (2006) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tohen et al. (1999) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tohen et al. (2000) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tohen et al. (2008) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vieta et al. (2010a) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berwaerts et al. (2012) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cutler et al. (2011) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hirschfeld et al. (2004) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khanna et al. (2005) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zarate et al. (2007) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yildiz et al. (2008) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pope et al. (1991) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowden et al. (2006) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hirschfeld et al. (2010) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janicak et al. (1998) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keck et al. (2003b) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potkin et al. (2005) </t>
+  </si>
+  <si>
+    <t>Ichim et al. (2000)</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Small et al. (1991)</t>
+  </si>
+  <si>
+    <t>Freeman et al. (1992)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segal et al. (1998) </t>
+  </si>
+  <si>
+    <t>Berk et al. (1999)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niufan et al. (2008) </t>
+  </si>
+  <si>
+    <t>Shafti (2010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li et al. (2008) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasudev et al. (2000) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kakkar et al. (2009) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">McElroy et al. (1996) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tohen et al. (2002) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zajecka et al. (2002) </t>
+  </si>
+  <si>
+    <t>Vieta et al. (2005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tohen et al. (2003) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perlis et al. (2006) </t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beneficial </t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aripiprazole </t>
+  </si>
+  <si>
+    <t>Asenapine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbamazepine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cariprazine </t>
+  </si>
+  <si>
+    <t>Haloperidol</t>
+  </si>
+  <si>
+    <t>Lamotrigine</t>
+  </si>
+  <si>
+    <t>Licarbazepine</t>
+  </si>
+  <si>
+    <t>Lithium</t>
+  </si>
+  <si>
+    <t>Olanzapine</t>
+  </si>
+  <si>
+    <t>Paliperidone</t>
+  </si>
+  <si>
+    <t>Quetiapine</t>
+  </si>
+  <si>
+    <t>Risperidone</t>
+  </si>
+  <si>
+    <t>Tamoxifen</t>
+  </si>
+  <si>
+    <t>Topiramate</t>
+  </si>
+  <si>
+    <t>Valproate</t>
+  </si>
+  <si>
+    <t>Verapamil</t>
+  </si>
+  <si>
+    <t>Ziprasidone</t>
+  </si>
+  <si>
+    <t>OxCBZ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outcome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: mean change in (Young Mania Rating Scale) YMRS or Mania Rating Scale (MRS) total scores</t>
+    </r>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -74,7 +434,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -109,7 +468,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -144,16 +502,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -275,50 +637,2474 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>2003</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3.4</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>2006</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>12.5</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>7.2</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>2009</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>12.6</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>2009</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>2010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>10.1</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <v>8</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>10.8</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
+        <v>9</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>2009</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>13.1</v>
+      </c>
+      <c r="F14">
+        <v>11.3</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>7.4</v>
+      </c>
+      <c r="F15">
+        <v>11.6</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2">
+        <v>11</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>13.9</v>
+      </c>
+      <c r="F16">
+        <v>10.7</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
+        <v>12</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>11.5</v>
+      </c>
+      <c r="F17">
+        <v>10.8</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
+        <v>13</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>7.8</v>
+      </c>
+      <c r="F18">
+        <v>10.7</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
+        <v>14</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>14.6</v>
+      </c>
+      <c r="F19">
+        <v>11.4</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2">
+        <v>15</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>2004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>16</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>5.2</v>
+      </c>
+      <c r="F21">
+        <v>9.4</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <v>17</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>2005</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>15.1</v>
+      </c>
+      <c r="F22">
+        <v>9.6</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
+        <v>18</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>7.1</v>
+      </c>
+      <c r="F23">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2">
+        <v>19</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>2009</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="F24" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="F25" s="4">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>2012</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="F26" s="4">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="F27" s="4">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>2013</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="F28" s="4">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="F29" s="4">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="F30" s="4">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>2005</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="F31" s="4">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F32" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="C33">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="F33" s="4">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>2005</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>15.1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>9.4</v>
+      </c>
+      <c r="F35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>13.9</v>
+      </c>
+      <c r="F36" s="4">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>2009</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>12.8</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="C38">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="C39">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>12</v>
+      </c>
+      <c r="F39">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>2010</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>15.9</v>
+      </c>
+      <c r="F40">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="C41">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>6.1</v>
+      </c>
+      <c r="F41">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="C42">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <v>10.4</v>
+      </c>
+      <c r="F42">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>2012</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>14.3</v>
+      </c>
+      <c r="F43">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="C44">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>6.8</v>
+      </c>
+      <c r="F44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="C45">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>12.6</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>2000</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <v>18</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>11.6</v>
+      </c>
+      <c r="F46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="C47">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>11.4</v>
+      </c>
+      <c r="F47">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="C48">
+        <v>18</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>15.6</v>
+      </c>
+      <c r="F48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>2003</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49">
+        <v>19</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="C50">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>9.5</v>
+      </c>
+      <c r="F50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="C51">
+        <v>19</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>10.7</v>
+      </c>
+      <c r="F51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>2007</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F52">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F53">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>1994</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54">
+        <v>21</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="C55">
+        <v>21</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="C56">
+        <v>21</v>
+      </c>
+      <c r="D56">
+        <v>16</v>
+      </c>
+      <c r="E56">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>2005</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <v>22</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>15.2</v>
+      </c>
+      <c r="F57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="C58">
+        <v>22</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>6.7</v>
+      </c>
+      <c r="F58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="C59">
+        <v>22</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>14.6</v>
+      </c>
+      <c r="F59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>2006</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60">
+        <v>23</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>12.9</v>
+      </c>
+      <c r="F60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="C61">
+        <v>23</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>7.7</v>
+      </c>
+      <c r="F61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="C62">
+        <v>23</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>13.8</v>
+      </c>
+      <c r="F62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="C63">
+        <v>23</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>8.4</v>
+      </c>
+      <c r="F63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="C64">
+        <v>23</v>
+      </c>
+      <c r="D64">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>6</v>
+      </c>
+      <c r="F64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="C65">
+        <v>23</v>
+      </c>
+      <c r="D65">
+        <v>15</v>
+      </c>
+      <c r="E65">
+        <v>8.1</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="C66">
+        <v>23</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>7.7</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="C67">
+        <v>23</v>
+      </c>
+      <c r="D67">
+        <v>15</v>
+      </c>
+      <c r="E67">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="C68">
+        <v>23</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>6.4</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="C69">
+        <v>23</v>
+      </c>
+      <c r="D69">
+        <v>15</v>
+      </c>
+      <c r="E69">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>1999</v>
+      </c>
+      <c r="B70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70">
+        <v>24</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>10.3</v>
+      </c>
+      <c r="F70">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="C71">
+        <v>24</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>2000</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72">
+        <v>25</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>14.8</v>
+      </c>
+      <c r="F72">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="C73">
+        <v>25</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>8.1</v>
+      </c>
+      <c r="F73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>2008</v>
+      </c>
+      <c r="B74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74">
+        <v>26</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>9.4</v>
+      </c>
+      <c r="F74">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="C75">
+        <v>26</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>7.4</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="C76">
+        <v>26</v>
+      </c>
+      <c r="D76">
+        <v>16</v>
+      </c>
+      <c r="E76">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F76">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>2010</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77">
+        <v>27</v>
+      </c>
+      <c r="D77">
+        <v>11</v>
+      </c>
+      <c r="E77">
+        <v>13.2</v>
+      </c>
+      <c r="F77">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="C78">
+        <v>27</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>7.4</v>
+      </c>
+      <c r="F78">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="C79">
+        <v>27</v>
+      </c>
+      <c r="D79">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>11.7</v>
+      </c>
+      <c r="F79">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>2012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80">
+        <v>28</v>
+      </c>
+      <c r="D80">
+        <v>11</v>
+      </c>
+      <c r="E80">
+        <v>13.5</v>
+      </c>
+      <c r="F80">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="C81">
+        <v>28</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>10.1</v>
+      </c>
+      <c r="F81">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="C82">
+        <v>28</v>
+      </c>
+      <c r="D82">
+        <v>11</v>
+      </c>
+      <c r="E82">
+        <v>11.4</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="C83">
+        <v>28</v>
+      </c>
+      <c r="D83">
+        <v>11</v>
+      </c>
+      <c r="E83">
+        <v>9.1</v>
+      </c>
+      <c r="F83">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>2011</v>
+      </c>
+      <c r="B84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84">
+        <v>29</v>
+      </c>
+      <c r="D84">
+        <v>12</v>
+      </c>
+      <c r="E84">
+        <v>14.3</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="C85">
+        <v>29</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>10.5</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>2004</v>
+      </c>
+      <c r="B86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86">
+        <v>30</v>
+      </c>
+      <c r="D86">
+        <v>13</v>
+      </c>
+      <c r="E86">
+        <v>10.6</v>
+      </c>
+      <c r="F86">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="C87">
+        <v>30</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>4.8</v>
+      </c>
+      <c r="F87">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>2005</v>
+      </c>
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88">
+        <v>31</v>
+      </c>
+      <c r="D88">
+        <v>13</v>
+      </c>
+      <c r="E88">
+        <v>22.7</v>
+      </c>
+      <c r="F88">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="C89">
+        <v>31</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>10.5</v>
+      </c>
+      <c r="F89">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>2007</v>
+      </c>
+      <c r="B90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90">
+        <v>32</v>
+      </c>
+      <c r="D90">
+        <v>14</v>
+      </c>
+      <c r="E90">
+        <v>18.3</v>
+      </c>
+      <c r="F90">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="C91">
+        <v>32</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>-4.7</v>
+      </c>
+      <c r="F91">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>2008</v>
+      </c>
+      <c r="B92" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92">
+        <v>33</v>
+      </c>
+      <c r="D92">
+        <v>14</v>
+      </c>
+      <c r="E92">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="C93">
+        <v>33</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>-4.8</v>
+      </c>
+      <c r="F93">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>1991</v>
+      </c>
+      <c r="B94" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94">
+        <v>34</v>
+      </c>
+      <c r="D94">
+        <v>16</v>
+      </c>
+      <c r="E94">
+        <v>11.4</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="C95">
+        <v>34</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>0.2</v>
+      </c>
+      <c r="F95">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>2006</v>
+      </c>
+      <c r="B96" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96">
+        <v>35</v>
+      </c>
+      <c r="D96">
+        <v>16</v>
+      </c>
+      <c r="E96">
+        <v>11.9</v>
+      </c>
+      <c r="F96">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="C97">
+        <v>35</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>9</v>
+      </c>
+      <c r="F97">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>2010</v>
+      </c>
+      <c r="B98" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98">
+        <v>36</v>
+      </c>
+      <c r="D98">
+        <v>16</v>
+      </c>
+      <c r="E98">
+        <v>10.1</v>
+      </c>
+      <c r="F98">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="C99">
+        <v>36</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>8.5</v>
+      </c>
+      <c r="F99">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>1998</v>
+      </c>
+      <c r="B100" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100">
+        <v>37</v>
+      </c>
+      <c r="D100">
+        <v>17</v>
+      </c>
+      <c r="E100">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="C101">
+        <v>37</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1.3</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>2003</v>
+      </c>
+      <c r="B102" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102">
+        <v>38</v>
+      </c>
+      <c r="D102">
+        <v>18</v>
+      </c>
+      <c r="E102">
+        <v>12.4</v>
+      </c>
+      <c r="F102">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="C103">
+        <v>38</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>7.8</v>
+      </c>
+      <c r="F103">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>2005</v>
+      </c>
+      <c r="B104" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104">
+        <v>39</v>
+      </c>
+      <c r="D104">
+        <v>18</v>
+      </c>
+      <c r="E104">
+        <v>11.1</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="C105">
+        <v>39</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>5.6</v>
+      </c>
+      <c r="F105">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>2000</v>
+      </c>
+      <c r="B106" t="s">
+        <v>43</v>
+      </c>
+      <c r="C106">
+        <v>40</v>
+      </c>
+      <c r="D106">
+        <v>9</v>
+      </c>
+      <c r="E106">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F106" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="C107">
+        <v>40</v>
+      </c>
+      <c r="D107">
+        <v>7</v>
+      </c>
+      <c r="E107">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F107" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>1991</v>
+      </c>
+      <c r="B108" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108">
+        <v>41</v>
+      </c>
+      <c r="D108">
+        <v>9</v>
+      </c>
+      <c r="E108">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F108" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="C109">
+        <v>41</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <v>8.5</v>
+      </c>
+      <c r="F109" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>1992</v>
+      </c>
+      <c r="B110" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110">
+        <v>42</v>
+      </c>
+      <c r="D110">
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F110">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="C111">
+        <v>42</v>
+      </c>
+      <c r="D111">
+        <v>16</v>
+      </c>
+      <c r="E111">
+        <v>27.1</v>
+      </c>
+      <c r="F111">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>1998</v>
+      </c>
+      <c r="B112" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112">
+        <v>43</v>
+      </c>
+      <c r="D112">
+        <v>9</v>
+      </c>
+      <c r="E112">
+        <v>15.7</v>
+      </c>
+      <c r="F112" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="C113">
+        <v>43</v>
+      </c>
+      <c r="D113">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="C114">
+        <v>43</v>
+      </c>
+      <c r="D114">
+        <v>13</v>
+      </c>
+      <c r="E114">
+        <v>12.4</v>
+      </c>
+      <c r="F114" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>1999</v>
+      </c>
+      <c r="B115" t="s">
+        <v>48</v>
+      </c>
+      <c r="C115">
+        <v>44</v>
+      </c>
+      <c r="D115">
+        <v>9</v>
+      </c>
+      <c r="E115">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F115" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="C116">
+        <v>44</v>
+      </c>
+      <c r="D116">
+        <v>10</v>
+      </c>
+      <c r="E116">
+        <v>21.5</v>
+      </c>
+      <c r="F116" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>2008</v>
+      </c>
+      <c r="B117" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117">
+        <v>45</v>
+      </c>
+      <c r="D117">
+        <v>9</v>
+      </c>
+      <c r="E117">
+        <v>20.2</v>
+      </c>
+      <c r="F117">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="C118">
+        <v>45</v>
+      </c>
+      <c r="D118">
+        <v>10</v>
+      </c>
+      <c r="E118">
+        <v>24.6</v>
+      </c>
+      <c r="F118">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>2010</v>
+      </c>
+      <c r="B119" t="s">
+        <v>50</v>
+      </c>
+      <c r="C119">
+        <v>46</v>
+      </c>
+      <c r="D119">
+        <v>9</v>
+      </c>
+      <c r="E119">
+        <v>53.7</v>
+      </c>
+      <c r="F119">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="C120">
+        <v>46</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
+      </c>
+      <c r="E120">
+        <v>62.6</v>
+      </c>
+      <c r="F120">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>2008</v>
+      </c>
+      <c r="B121" t="s">
+        <v>51</v>
+      </c>
+      <c r="C121">
+        <v>47</v>
+      </c>
+      <c r="D121">
+        <v>9</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="C122">
+        <v>47</v>
+      </c>
+      <c r="D122">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>2000</v>
+      </c>
+      <c r="B123" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123">
+        <v>48</v>
+      </c>
+      <c r="D123">
+        <v>16</v>
+      </c>
+      <c r="E123">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F123">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="C124">
+        <v>48</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124">
+        <v>20.8</v>
+      </c>
+      <c r="F124">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>2009</v>
+      </c>
+      <c r="B125" t="s">
+        <v>53</v>
+      </c>
+      <c r="C125">
+        <v>49</v>
+      </c>
+      <c r="D125">
+        <v>16</v>
+      </c>
+      <c r="E125">
+        <v>10</v>
+      </c>
+      <c r="F125">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="C126">
+        <v>49</v>
+      </c>
+      <c r="D126">
+        <v>19</v>
+      </c>
+      <c r="E126">
+        <v>9.9</v>
+      </c>
+      <c r="F126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>1996</v>
+      </c>
+      <c r="B127" t="s">
+        <v>54</v>
+      </c>
+      <c r="C127">
+        <v>50</v>
+      </c>
+      <c r="D127">
+        <v>16</v>
+      </c>
+      <c r="E127">
+        <v>15.4</v>
+      </c>
+      <c r="F127">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="C128">
+        <v>50</v>
+      </c>
+      <c r="D128">
+        <v>6</v>
+      </c>
+      <c r="E128">
+        <v>12.9</v>
+      </c>
+      <c r="F128">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>2002</v>
+      </c>
+      <c r="B129" t="s">
+        <v>55</v>
+      </c>
+      <c r="C129">
+        <v>51</v>
+      </c>
+      <c r="D129">
+        <v>16</v>
+      </c>
+      <c r="E129">
+        <v>10.4</v>
+      </c>
+      <c r="F129">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="C130">
+        <v>51</v>
+      </c>
+      <c r="D130">
+        <v>10</v>
+      </c>
+      <c r="E130">
+        <v>13.4</v>
+      </c>
+      <c r="F130">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>2002</v>
+      </c>
+      <c r="B131" t="s">
+        <v>56</v>
+      </c>
+      <c r="C131">
+        <v>52</v>
+      </c>
+      <c r="D131">
+        <v>16</v>
+      </c>
+      <c r="E131">
+        <v>14.8</v>
+      </c>
+      <c r="F131" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="C132">
+        <v>52</v>
+      </c>
+      <c r="D132">
+        <v>10</v>
+      </c>
+      <c r="E132">
+        <v>17.2</v>
+      </c>
+      <c r="F132" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>2005</v>
+      </c>
+      <c r="B133" t="s">
+        <v>57</v>
+      </c>
+      <c r="C133">
+        <v>53</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>15.7</v>
+      </c>
+      <c r="F133" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="C134">
+        <v>53</v>
+      </c>
+      <c r="D134">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>15.7</v>
+      </c>
+      <c r="F134" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>2003</v>
+      </c>
+      <c r="B135" t="s">
+        <v>58</v>
+      </c>
+      <c r="C135">
+        <v>54</v>
+      </c>
+      <c r="D135">
+        <v>10</v>
+      </c>
+      <c r="E135">
+        <v>21.3</v>
+      </c>
+      <c r="F135">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="C136">
+        <v>54</v>
+      </c>
+      <c r="D136">
+        <v>6</v>
+      </c>
+      <c r="E136">
+        <v>23.5</v>
+      </c>
+      <c r="F136">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>2006</v>
+      </c>
+      <c r="B137" t="s">
+        <v>59</v>
+      </c>
+      <c r="C137">
+        <v>55</v>
+      </c>
+      <c r="D137">
+        <v>10</v>
+      </c>
+      <c r="E137">
+        <v>15</v>
+      </c>
+      <c r="F137" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="C138">
+        <v>55</v>
+      </c>
+      <c r="D138">
+        <v>13</v>
+      </c>
+      <c r="E138">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F138" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>